--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87670948-61DB-D944-AA8A-A1011201003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342761C5-9736-EB4A-B5F2-ACEDDBA473FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="157">
   <si>
     <t>id</t>
   </si>
@@ -342,22 +342,10 @@
     <t>100000072082</t>
   </si>
   <si>
-    <t>Humira 20 mg solution for injection in pre-filled syringe</t>
-  </si>
-  <si>
     <t>100000155527</t>
   </si>
   <si>
-    <t>20 mg</t>
-  </si>
-  <si>
     <t>EU/1/03/256/022</t>
-  </si>
-  <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>EU</t>
   </si>
   <si>
     <t>2008-09-08</t>
@@ -912,6 +900,15 @@
   <si>
     <t>EU/1/03/256/022|0xe72f98caa2b13cb3ccb489a1a7945c91</t>
   </si>
+  <si>
+    <t>Humira 40 mg solution for injection in pre-filled syringe</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
 </sst>
 </file>
 
@@ -1084,7 +1081,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1101,7 +1098,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1451,25 +1448,25 @@
     <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2">
         <v>11201000</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J2" s="18">
         <v>20066000</v>
@@ -1548,10 +1545,10 @@
     <row r="2" spans="1:14" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1560,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1614,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1750,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1767,25 +1764,25 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="O2" s="6"/>
     </row>
@@ -1865,7 +1862,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -1883,7 +1880,7 @@
         <v>96</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -1901,7 +1898,7 @@
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>7</v>
@@ -1910,7 +1907,7 @@
         <v>72072</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
@@ -1928,10 +1925,10 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>17</v>
@@ -1946,10 +1943,10 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>17</v>
@@ -1964,10 +1961,10 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>17</v>
@@ -1982,10 +1979,10 @@
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>17</v>
@@ -2000,10 +1997,10 @@
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -2018,10 +2015,10 @@
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -2100,22 +2097,22 @@
     <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
@@ -2131,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2214,31 +2211,31 @@
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -2322,7 +2319,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2343,7 +2340,7 @@
         <v>92</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
         <v>93</v>
@@ -2420,7 +2417,7 @@
         <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -2432,22 +2429,22 @@
         <v>89</v>
       </c>
       <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
-      </c>
-      <c r="R1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" t="s">
-        <v>136</v>
       </c>
       <c r="V1" t="s">
         <v>8</v>
@@ -2456,22 +2453,22 @@
     <row r="2" spans="1:22" ht="19">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J2" s="21">
         <v>100000073498</v>
@@ -2483,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N2" s="21">
         <v>200000003529</v>
@@ -2495,7 +2492,7 @@
         <v>123456</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R2" s="18">
         <v>30051000</v>
@@ -2504,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="U2" s="21">
         <v>200000003204</v>
@@ -2520,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2564,10 +2561,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -2576,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -2585,10 +2582,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342761C5-9736-EB4A-B5F2-ACEDDBA473FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F09886-A62C-9E46-B835-40C3D3E5B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>GBR</t>
+  </si>
+  <si>
+    <t>sid</t>
   </si>
 </sst>
 </file>
@@ -1573,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1606,6 +1609,9 @@
     <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -2517,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F09886-A62C-9E46-B835-40C3D3E5B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D53D4-6A36-3B40-8A83-81899BFE4FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -911,6 +911,9 @@
   </si>
   <si>
     <t>sid</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2134,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2184,7 +2187,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
         <v>84</v>
